--- a/biology/Botanique/Allium_galileum/Allium_galileum.xlsx
+++ b/biology/Botanique/Allium_galileum/Allium_galileum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium galileum est une espèce d'oignon connu en  Palestine et en Israel[1],[2].
-Allium galileum a des bulbes ovoïdes pouvant mesurer 22 mm de long. La hampe florale est rigide et atteint 50 cm de haut. Les feuilles sont tubulaires, jusqu'à 25 cm de long. L'ombelle est lâche, avec de nombreuses fleurs. Les tépales sont jaune-vert ou violet-vert[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium galileum est une espèce d'oignon connu en  Palestine et en Israel,.
+Allium galileum a des bulbes ovoïdes pouvant mesurer 22 mm de long. La hampe florale est rigide et atteint 50 cm de haut. Les feuilles sont tubulaires, jusqu'à 25 cm de long. L'ombelle est lâche, avec de nombreuses fleurs. Les tépales sont jaune-vert ou violet-vert.
 </t>
         </is>
       </c>
